--- a/Pixel height.xlsx
+++ b/Pixel height.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailey\Desktop\School Work\Fifth Year\Project Class\Repository\SafeWalkDrone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F3B0EA-336F-47A7-95C6-350845DAD703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B094176-CC50-464F-8A22-64862A53D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{41A5C349-5737-4E79-B3AF-1E3E8CBCF260}"/>
   </bookViews>
@@ -162,7 +162,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.89653018372703408"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1076,15 +1086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1113,14 +1123,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>151626</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>65257</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1143,7 +1153,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1104126"/>
+          <a:off x="0" y="1342251"/>
           <a:ext cx="8696325" cy="4485631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1456,7 +1466,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
